--- a/db/import/companies.xlsx
+++ b/db/import/companies.xlsx
@@ -19,12 +19,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>account</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Chandler Land Development Corp.</t>
+  </si>
+  <si>
+    <t>Hill Construction</t>
+  </si>
+  <si>
+    <t>Thompson Tractor Co.</t>
+  </si>
+  <si>
+    <t>Survey Products Unlimited, Inc.</t>
+  </si>
+  <si>
+    <t>Maximus Trading Corp.</t>
+  </si>
+  <si>
+    <t>Alto Construction Co., Inc.</t>
+  </si>
+  <si>
+    <t>Archer Western Contractors, Inc.</t>
+  </si>
+  <si>
+    <t>Nortrax</t>
+  </si>
+  <si>
+    <t>Graham Brothers</t>
+  </si>
+  <si>
+    <t>HLCM Group</t>
+  </si>
+  <si>
+    <t>Florida Geological Survey</t>
+  </si>
+  <si>
+    <t>QGS Development</t>
+  </si>
+  <si>
+    <t>Great Lakes Dredge &amp; Dock Company</t>
+  </si>
+  <si>
+    <t>Racon, Inc.</t>
+  </si>
+  <si>
+    <t>Rainey Construction</t>
+  </si>
+  <si>
+    <t>Ringpower</t>
+  </si>
+  <si>
+    <t>Guthrie Construction</t>
+  </si>
+  <si>
+    <t>ERC General Contracting Services</t>
+  </si>
+  <si>
+    <t>Plateau Excavation</t>
+  </si>
+  <si>
+    <t>East Coast Brokers &amp; Packers</t>
+  </si>
+  <si>
+    <t>Pepper Contracting Services</t>
+  </si>
+  <si>
+    <t>Dickerson Florida Inc.</t>
+  </si>
+  <si>
+    <t>Galloway National Golf Club</t>
+  </si>
+  <si>
+    <t>Classic Golf Construction</t>
+  </si>
+  <si>
+    <t>Ralston Land Surveying Inc.</t>
+  </si>
+  <si>
+    <t>Tiger Contracting, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiewit Southern </t>
+  </si>
+  <si>
+    <t>J. B. Coxwell Contracting</t>
+  </si>
+  <si>
+    <t>Clark Hunt Construction</t>
+  </si>
+  <si>
+    <t>RIPA &amp; Associates, Inc.</t>
+  </si>
+  <si>
+    <t>Edens Construction</t>
+  </si>
+  <si>
+    <t>Ure Tek</t>
+  </si>
+  <si>
+    <t>Kelly Tractor</t>
+  </si>
+  <si>
+    <t>Precision Turf</t>
+  </si>
+  <si>
+    <t>John Carlo, Inc.</t>
+  </si>
+  <si>
+    <t>LSR FLT Geosystems</t>
+  </si>
+  <si>
+    <t>Lykes Brothers Inc.</t>
+  </si>
+  <si>
+    <t>ADAMS ROBINSON ENTERPRISES INC</t>
+  </si>
+  <si>
+    <t>PCL Civil Constructors, Inc.</t>
+  </si>
+  <si>
+    <t>Dewitt Excavating, Inc.</t>
+  </si>
+  <si>
+    <t>Lane 408 Construction</t>
+  </si>
+  <si>
+    <t>J &amp; B Tool, Inc.</t>
+  </si>
+  <si>
+    <t>Chris Clark Grading and Paving</t>
+  </si>
+  <si>
+    <t>Arbor Tree &amp; Landscape</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Comanco</t>
+  </si>
+  <si>
+    <t>R. E. Arnold Construction, Inc.</t>
+  </si>
+  <si>
+    <t>CCK Equipment Company, LLC</t>
+  </si>
+  <si>
+    <t>Alexander Contracting</t>
+  </si>
+  <si>
+    <t>Equestrian Footings &amp; Services Inc</t>
+  </si>
+  <si>
+    <t>IBI Group</t>
+  </si>
+  <si>
+    <t>Peed Bros.</t>
+  </si>
+  <si>
+    <t>Front Line Surveying &amp; Mapping</t>
+  </si>
+  <si>
+    <t>Reid Construction</t>
+  </si>
+  <si>
+    <t>Allstate Paving &amp; Development</t>
+  </si>
+  <si>
+    <t>Moretrench</t>
+  </si>
+  <si>
+    <t>Prince Contracting</t>
+  </si>
+  <si>
+    <t>Cline Service Corp.</t>
+  </si>
+  <si>
+    <t>Saiia Construction, LLC</t>
+  </si>
+  <si>
+    <t>Peter Dueck</t>
+  </si>
+  <si>
+    <t>Gary Ingram Paving and Grading</t>
+  </si>
+  <si>
+    <t>RIDGDILL &amp; SON, INC.</t>
+  </si>
+  <si>
+    <t>Skanska Construction</t>
+  </si>
+  <si>
+    <t>G.A. West</t>
+  </si>
+  <si>
+    <t>KIEWIT INFRASTRUCUTURE SOUTH CORP</t>
+  </si>
+  <si>
+    <t>H &amp; J Contracting, Inc.</t>
+  </si>
+  <si>
+    <t>Coniglio Construction</t>
+  </si>
+  <si>
+    <t>Sarasota County</t>
+  </si>
+  <si>
+    <t>Peed Brothers</t>
+  </si>
+  <si>
+    <t>Prince Contracting Co, Inc.</t>
+  </si>
+  <si>
+    <t>Primal Innovation</t>
+  </si>
+  <si>
+    <t>Everett Dykes Grassing Co. Inc.</t>
+  </si>
+  <si>
+    <t>Panattoni Construction</t>
+  </si>
+  <si>
+    <t>Shaw Group</t>
+  </si>
+  <si>
+    <t>Yancey Brothers</t>
+  </si>
+  <si>
+    <t>Sports Turf Management LLC</t>
+  </si>
+  <si>
+    <t>DuPont Titanium Technologies</t>
+  </si>
+  <si>
+    <t>Gulfstream Contractors, Inc.</t>
+  </si>
+  <si>
+    <t>Spatial Innovision Ltd</t>
+  </si>
+  <si>
+    <t>Eagle Consultants</t>
+  </si>
+  <si>
+    <t>Everglades Farm Equipment</t>
+  </si>
+  <si>
+    <t>GCI</t>
+  </si>
+  <si>
+    <t>Brent Scarborough  &amp; Company, Inc.</t>
+  </si>
+  <si>
+    <t>Hewitt Contracting</t>
+  </si>
+  <si>
+    <t>Lane Construction</t>
+  </si>
+  <si>
+    <t>AM Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>Ace Grading Company</t>
+  </si>
+  <si>
+    <t>Bio-Mass Tech Inc</t>
+  </si>
+  <si>
+    <t>Charlotte County Public Works</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>Woodruff &amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>Mark Randell</t>
+  </si>
+  <si>
+    <t>Tyndall &amp; Associates</t>
+  </si>
+  <si>
+    <t>Jr. Davis Construction Co, Inc.</t>
+  </si>
+  <si>
+    <t>Attwood Equestrian Surfaces</t>
+  </si>
+  <si>
+    <t>Flagler Construction Equipment</t>
+  </si>
+  <si>
+    <t>Vallencourt Construction</t>
+  </si>
+  <si>
+    <t>C. W. Roberts Contracting, Inc.</t>
+  </si>
+  <si>
+    <t>Hosea O. Weaver &amp; Sons</t>
+  </si>
+  <si>
+    <t>INDIAN RIVER COUNTY</t>
+  </si>
+  <si>
+    <t>Tampa Contracting</t>
+  </si>
+  <si>
+    <t>QGS</t>
+  </si>
+  <si>
+    <t>Panhandle Grading &amp; Paving, Inc.</t>
+  </si>
+  <si>
+    <t>Mckim &amp; Creed</t>
+  </si>
+  <si>
+    <t>Tractor Equipment Company</t>
+  </si>
+  <si>
+    <t>EGPS Solutions</t>
+  </si>
+  <si>
+    <t>Hamilton Masonry</t>
+  </si>
+  <si>
+    <t>SC Barker</t>
+  </si>
+  <si>
+    <t>Tug Hill Construction, Inc.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -413,38 +740,878 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B201">
+    <sortCondition ref="B2:B201"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
